--- a/Universidad/Supermercado.xlsx
+++ b/Universidad/Supermercado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braya\OneDrive\Escritorio\MYSQL\Universidad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1FEE0B3-EE16-4549-8897-0CDF91B24120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1336E22D-2160-4E09-8DB5-317C13A6594A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C685239C-04D2-48CB-AFEC-E51A70384B1C}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{C685239C-04D2-48CB-AFEC-E51A70384B1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>Atributo</t>
   </si>
@@ -123,6 +123,84 @@
   </si>
   <si>
     <t>Abarrotes</t>
+  </si>
+  <si>
+    <t>VENDE</t>
+  </si>
+  <si>
+    <t>CodigoProd</t>
+  </si>
+  <si>
+    <t>fk</t>
+  </si>
+  <si>
+    <t>NRONotaVenta</t>
+  </si>
+  <si>
+    <t>NOTAVENTA</t>
+  </si>
+  <si>
+    <t>NRO</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Monto</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>JOAQUIN CHUMACERO</t>
+  </si>
+  <si>
+    <t>SATURNINO MAMANI</t>
+  </si>
+  <si>
+    <t>FABIOLA MENDEZ</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Cicliente</t>
+  </si>
+  <si>
+    <t>cocacola 2l</t>
+  </si>
+  <si>
+    <t>cocacola 3L</t>
+  </si>
+  <si>
+    <t>fanta 2L</t>
+  </si>
+  <si>
+    <t>arroz</t>
+  </si>
+  <si>
+    <t>carne de res</t>
+  </si>
+  <si>
+    <t>redbull</t>
+  </si>
+  <si>
+    <t>20231-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -138,18 +216,50 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -158,8 +268,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,23 +589,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9BBADC-5337-4CF4-80B1-F1E4CF124D0F}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.21875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" customWidth="1"/>
+    <col min="7" max="7" width="6.21875" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" customWidth="1"/>
+    <col min="13" max="14" width="5.21875" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="17" width="6.109375" customWidth="1"/>
+    <col min="18" max="19" width="6.6640625" customWidth="1"/>
+    <col min="20" max="20" width="7.77734375" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -500,197 +638,554 @@
       <c r="E2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="I3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1001</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="3">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3">
+        <v>111</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="3">
+        <v>324324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1002</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="1">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1">
+        <v>222</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="1">
+        <v>324234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="D6" s="1">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E6" s="1">
+        <v>1003</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1">
+        <v>333</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="1">
+        <v>324235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1004</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="1">
+        <v>40</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1005</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="3">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="X8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1006</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="X9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z9">
+        <v>4</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="X10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z10">
+        <v>40</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="4">
+        <v>44936</v>
+      </c>
+      <c r="F15" s="3">
+        <v>45</v>
+      </c>
+      <c r="G15" s="3">
+        <v>111</v>
+      </c>
+      <c r="I15" s="3">
+        <v>100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1001</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2</v>
+      </c>
+      <c r="L15" s="3">
+        <v>100</v>
+      </c>
+      <c r="X15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D16" s="1">
+        <v>101</v>
+      </c>
+      <c r="E16" s="2">
+        <v>44936</v>
+      </c>
+      <c r="F16" s="1">
+        <v>64</v>
+      </c>
+      <c r="G16" s="1">
+        <v>222</v>
+      </c>
+      <c r="I16" s="3">
+        <v>100</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1006</v>
+      </c>
+      <c r="K16" s="3">
+        <v>5</v>
+      </c>
+      <c r="L16" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="I17" s="1">
+        <v>101</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1003</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>7</v>
+      </c>
+      <c r="X17" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
+      <c r="Y17" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+      <c r="Z17" t="s">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
+      <c r="AA17" t="s">
         <v>3</v>
       </c>
-      <c r="E12" t="s">
+      <c r="AB17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="18" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="D18" s="1">
+        <v>102</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
+        <v>333</v>
+      </c>
+      <c r="I18" s="1">
+        <v>101</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1007</v>
+      </c>
+      <c r="K18" s="1">
+        <v>3</v>
+      </c>
+      <c r="L18" s="1">
+        <v>10</v>
+      </c>
+      <c r="X18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y18" t="s">
         <v>16</v>
       </c>
-      <c r="C13">
+      <c r="Z18">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
+      <c r="AA18" t="s">
         <v>11</v>
       </c>
-      <c r="E13" t="s">
+      <c r="AB18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="19" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="D19" s="3">
+        <v>103</v>
+      </c>
+      <c r="E19" s="4">
+        <v>44941</v>
+      </c>
+      <c r="F19" s="3">
+        <v>50</v>
+      </c>
+      <c r="G19" s="3">
+        <v>111</v>
+      </c>
+      <c r="I19" s="1">
+        <v>101</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1001</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="X19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y19" t="s">
         <v>15</v>
       </c>
-      <c r="C14">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="Z19">
+        <v>30</v>
+      </c>
+      <c r="AA19" t="s">
         <v>11</v>
       </c>
-      <c r="E14" t="s">
+      <c r="AB19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="X20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="I21" s="1">
+        <v>102</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1006</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+      <c r="L21" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="X21" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z21">
+        <v>4</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="I22" s="5">
+        <v>103</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1001</v>
+      </c>
+      <c r="K22" s="5">
+        <v>3</v>
+      </c>
+      <c r="L22" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="I23" s="5">
+        <v>103</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1005</v>
+      </c>
+      <c r="K23" s="5">
         <v>2</v>
       </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
+      <c r="L23" s="5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
